--- a/SchedulingData/dynamic14/pso/scheduling2_6.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_6.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -470,51 +470,51 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>233.48</v>
+        <v>264.48</v>
       </c>
       <c r="D2" t="n">
-        <v>297.7</v>
+        <v>338.7</v>
       </c>
       <c r="E2" t="n">
-        <v>10.36</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>210.82</v>
+        <v>226.2</v>
       </c>
       <c r="D3" t="n">
-        <v>270.7</v>
+        <v>289.6</v>
       </c>
       <c r="E3" t="n">
-        <v>12.12</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>246.86</v>
+        <v>215.28</v>
       </c>
       <c r="D4" t="n">
-        <v>294.3</v>
+        <v>277.08</v>
       </c>
       <c r="E4" t="n">
-        <v>13.26</v>
+        <v>15.272</v>
       </c>
     </row>
     <row r="5">
@@ -523,131 +523,131 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>297.7</v>
+        <v>260.3</v>
       </c>
       <c r="D5" t="n">
-        <v>366.86</v>
+        <v>327.82</v>
       </c>
       <c r="E5" t="n">
-        <v>7.084</v>
+        <v>9.348000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>222.18</v>
+        <v>284.2</v>
       </c>
       <c r="D6" t="n">
-        <v>297.28</v>
+        <v>344.76</v>
       </c>
       <c r="E6" t="n">
-        <v>13.772</v>
+        <v>13.604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>366.86</v>
+        <v>289.6</v>
       </c>
       <c r="D7" t="n">
-        <v>433.54</v>
+        <v>360.5</v>
       </c>
       <c r="E7" t="n">
-        <v>3.556</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>222.86</v>
+        <v>338.7</v>
       </c>
       <c r="D8" t="n">
-        <v>296.86</v>
+        <v>380.38</v>
       </c>
       <c r="E8" t="n">
-        <v>11.444</v>
+        <v>7.232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>270.7</v>
+        <v>360.5</v>
       </c>
       <c r="D9" t="n">
-        <v>342.1</v>
+        <v>422.68</v>
       </c>
       <c r="E9" t="n">
-        <v>8.1</v>
+        <v>3.112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>219.94</v>
+        <v>205.94</v>
       </c>
       <c r="D10" t="n">
-        <v>284.36</v>
+        <v>260.8</v>
       </c>
       <c r="E10" t="n">
-        <v>12.224</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>342.1</v>
+        <v>260.8</v>
       </c>
       <c r="D11" t="n">
-        <v>392.16</v>
+        <v>328.4</v>
       </c>
       <c r="E11" t="n">
-        <v>5.724</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="12">
@@ -656,207 +656,207 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>296.86</v>
+        <v>422.68</v>
       </c>
       <c r="D12" t="n">
-        <v>332.46</v>
+        <v>483.46</v>
       </c>
       <c r="E12" t="n">
-        <v>9.023999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>392.16</v>
+        <v>483.46</v>
       </c>
       <c r="D13" t="n">
-        <v>448.14</v>
+        <v>546.66</v>
       </c>
       <c r="E13" t="n">
-        <v>3.216</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>294.3</v>
+        <v>546.66</v>
       </c>
       <c r="D14" t="n">
-        <v>347.5</v>
+        <v>606.22</v>
       </c>
       <c r="E14" t="n">
-        <v>10.54</v>
+        <v>23.004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>297.28</v>
+        <v>344.76</v>
       </c>
       <c r="D15" t="n">
-        <v>358.42</v>
+        <v>390.72</v>
       </c>
       <c r="E15" t="n">
-        <v>9.768000000000001</v>
+        <v>10.628</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>448.14</v>
+        <v>606.22</v>
       </c>
       <c r="D16" t="n">
-        <v>485.4</v>
+        <v>662.2</v>
       </c>
       <c r="E16" t="n">
-        <v>0.62</v>
+        <v>20.496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>485.4</v>
+        <v>390.72</v>
       </c>
       <c r="D17" t="n">
-        <v>556.16</v>
+        <v>460.62</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>8.228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>556.16</v>
+        <v>460.62</v>
       </c>
       <c r="D18" t="n">
-        <v>600</v>
+        <v>491.22</v>
       </c>
       <c r="E18" t="n">
-        <v>27.296</v>
+        <v>5.808</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>358.42</v>
+        <v>327.82</v>
       </c>
       <c r="D19" t="n">
-        <v>410.8</v>
+        <v>392.7</v>
       </c>
       <c r="E19" t="n">
-        <v>6.16</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>433.54</v>
+        <v>380.38</v>
       </c>
       <c r="D20" t="n">
-        <v>514.48</v>
+        <v>423.94</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07199999999999999</v>
+        <v>4.496</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>514.48</v>
+        <v>328.4</v>
       </c>
       <c r="D21" t="n">
-        <v>601.14</v>
+        <v>397.46</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>10.124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>284.36</v>
+        <v>277.08</v>
       </c>
       <c r="D22" t="n">
-        <v>381.86</v>
+        <v>324.28</v>
       </c>
       <c r="E22" t="n">
-        <v>7.064</v>
+        <v>11.192</v>
       </c>
     </row>
     <row r="23">
@@ -865,36 +865,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>601.14</v>
+        <v>392.7</v>
       </c>
       <c r="D23" t="n">
-        <v>667.48</v>
+        <v>460.5</v>
       </c>
       <c r="E23" t="n">
-        <v>26.516</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>410.8</v>
+        <v>460.5</v>
       </c>
       <c r="D24" t="n">
-        <v>471.3</v>
+        <v>544.52</v>
       </c>
       <c r="E24" t="n">
-        <v>2.24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600</v>
+        <v>324.28</v>
       </c>
       <c r="D25" t="n">
-        <v>654.08</v>
+        <v>383.8</v>
       </c>
       <c r="E25" t="n">
-        <v>24.488</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="26">
@@ -922,90 +922,90 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>654.08</v>
+        <v>383.8</v>
       </c>
       <c r="D26" t="n">
-        <v>699.96</v>
+        <v>418.28</v>
       </c>
       <c r="E26" t="n">
-        <v>21.52</v>
+        <v>4.072</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>347.5</v>
+        <v>544.52</v>
       </c>
       <c r="D27" t="n">
-        <v>401.06</v>
+        <v>612.86</v>
       </c>
       <c r="E27" t="n">
-        <v>7.804</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>332.46</v>
+        <v>491.22</v>
       </c>
       <c r="D28" t="n">
-        <v>375.88</v>
+        <v>549.16</v>
       </c>
       <c r="E28" t="n">
-        <v>5.812</v>
+        <v>3.104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>381.86</v>
+        <v>418.28</v>
       </c>
       <c r="D29" t="n">
-        <v>461.52</v>
+        <v>474.78</v>
       </c>
       <c r="E29" t="n">
-        <v>4.688</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>471.3</v>
+        <v>474.78</v>
       </c>
       <c r="D30" t="n">
-        <v>543.72</v>
+        <v>566.1799999999999</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1013,37 +1013,37 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>543.72</v>
+        <v>612.86</v>
       </c>
       <c r="D31" t="n">
-        <v>587.92</v>
+        <v>660.3</v>
       </c>
       <c r="E31" t="n">
-        <v>26.28</v>
+        <v>24.172</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>461.52</v>
+        <v>423.94</v>
       </c>
       <c r="D32" t="n">
-        <v>506.84</v>
+        <v>477.34</v>
       </c>
       <c r="E32" t="n">
         <v>1.776</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>506.84</v>
+        <v>477.34</v>
       </c>
       <c r="D33" t="n">
-        <v>594.89</v>
+        <v>545.6900000000001</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
@@ -1070,211 +1070,211 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>401.06</v>
+        <v>545.6900000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>498.36</v>
+        <v>606.41</v>
       </c>
       <c r="E34" t="n">
-        <v>3.184</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>587.92</v>
+        <v>397.46</v>
       </c>
       <c r="D35" t="n">
-        <v>666.02</v>
+        <v>438.24</v>
       </c>
       <c r="E35" t="n">
-        <v>24.04</v>
+        <v>7.176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>498.36</v>
+        <v>549.16</v>
       </c>
       <c r="D36" t="n">
-        <v>594.96</v>
+        <v>619.75</v>
       </c>
       <c r="E36" t="n">
-        <v>0.104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>594.96</v>
+        <v>619.75</v>
       </c>
       <c r="D37" t="n">
-        <v>701.15</v>
+        <v>688.95</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>25.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>375.88</v>
+        <v>438.24</v>
       </c>
       <c r="D38" t="n">
-        <v>436.56</v>
+        <v>523.04</v>
       </c>
       <c r="E38" t="n">
-        <v>2.864</v>
+        <v>3.796</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>436.56</v>
+        <v>566.1799999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>532.4299999999999</v>
+        <v>634.52</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532.4299999999999</v>
+        <v>523.04</v>
       </c>
       <c r="D40" t="n">
-        <v>578.23</v>
+        <v>587.45</v>
       </c>
       <c r="E40" t="n">
-        <v>26.62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>666.02</v>
+        <v>587.45</v>
       </c>
       <c r="D41" t="n">
-        <v>713.52</v>
+        <v>647.79</v>
       </c>
       <c r="E41" t="n">
-        <v>21.4</v>
+        <v>26.136</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>594.89</v>
+        <v>606.41</v>
       </c>
       <c r="D42" t="n">
-        <v>660.1900000000001</v>
+        <v>674.91</v>
       </c>
       <c r="E42" t="n">
-        <v>27.6</v>
+        <v>24.848</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>578.23</v>
+        <v>660.3</v>
       </c>
       <c r="D43" t="n">
-        <v>645.97</v>
+        <v>711.46</v>
       </c>
       <c r="E43" t="n">
-        <v>23.916</v>
+        <v>21.196</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>699.96</v>
+        <v>688.95</v>
       </c>
       <c r="D44" t="n">
-        <v>748.1</v>
+        <v>725.03</v>
       </c>
       <c r="E44" t="n">
-        <v>18.816</v>
+        <v>22.772</v>
       </c>
     </row>
   </sheetData>
